--- a/biology/Médecine/Jean_Chrysostome_Magnen/Jean_Chrysostome_Magnen.xlsx
+++ b/biology/Médecine/Jean_Chrysostome_Magnen/Jean_Chrysostome_Magnen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Chrysostome Magnen est un médecin franc-comtois né à Luxeuil (comté de Bourgogne ou Franche-Comté) en 1590.
 Il fit ses études à l’université de Dole, fut professeur de médecine et de philosophie à Pavie, accompagna, en 1660, à Paris le comte de Fuensaldaña, nommé ambassadeur, et montra dans tous ses ouvrages un penchant très-prononcé pour l’astrologie judiciaire, ce qui leur conserve encore aujourd’hui l’attrait de la curiosité.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Democritus reviviscens, sive De atomis (1646, in-4°), le plus recherché de tous ses écrits
 De tabaco exercitationes (1648, in-4°)
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Jean Chrysostome Magnen », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].
 </t>
